--- a/0519~20 주말진행상황.xlsx
+++ b/0519~20 주말진행상황.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4717CD8D-DAE4-4897-9D2A-8E39066B9A17}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7CF776D6-6776-45DC-AC47-DD225D3FFB7B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{9EA27C81-5605-4A34-9003-4C308B634538}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,60 @@
     <t>DailyDAO_jdbc.java
 ManualDAO_jdbc.java
 UserDAO_jdbc.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session.select 의 결과를 바로 사용 불가. result type 맞춰서 변수에 대입 후 해당 변수를 사용해야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAO.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String result = session.selectOne();
+result.equals() --&gt; (O)
+(String)(session.selectOne).equals() --&gt;(X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고) 멀티파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 회원 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력서/보건증/통장사본 이미지 파일 첨부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 경로 말고 실제 파일 첨부하는 법(by 종혁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql문 오류 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행현황관리.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,17 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C493B5-24BC-44AA-825B-146CB36B2AAB}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.5" style="2" bestFit="1" customWidth="1"/>
@@ -487,7 +541,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -507,7 +561,7 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -520,21 +574,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/0519~20 주말진행상황.xlsx
+++ b/0519~20 주말진행상황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7CF776D6-6776-45DC-AC47-DD225D3FFB7B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9A77078-0599-44A6-B9E9-5F2BECCD6C99}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{9EA27C81-5605-4A34-9003-4C308B634538}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,11 +143,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sql문 오류 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행현황관리.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date형식이 시간분초까지 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userMapper.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name, to_char(birth, 'yyyy/mm/dd'), email, address_city||' '||address_gu||' '||address_dong as address, phone_num, profile_photo 
+      from users 
+      where user_id=#{userId}  로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">--프로필 사진, 속한 지점, 회원인증유형, 이름 보기  
+--직원
+select u.profile_photo, b.branch_name,  u.name
+from users u, staffs s, branches b
+where u.user_id=?
+and u.user_id=s.staff_id
+and s.branch_seq=b.branch_seq
+--점주
+select u.profile_photo, b.branch_name,  u.name
+from users u, admins a, branches b
+where u.user_id=?
+and u.user_id=a.admin_id
+and a.branch_seq=b.branch_seq
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진, 속한 지점, 회원인증유형, 이름 보기
+슬라이드 메뉴에 들어갈 정보
+sql문 오류 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,6 +243,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C493B5-24BC-44AA-825B-146CB36B2AAB}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="280.5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -582,10 +626,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -639,8 +686,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/0519~20 주말진행상황.xlsx
+++ b/0519~20 주말진행상황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9A77078-0599-44A6-B9E9-5F2BECCD6C99}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD4E5F15-A621-4C6A-9F3D-6FBA581FD9F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{9EA27C81-5605-4A34-9003-4C308B634538}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,12 +160,6 @@
   </si>
   <si>
     <t>userMapper.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select name, to_char(birth, 'yyyy/mm/dd'), email, address_city||' '||address_gu||' '||address_dong as address, phone_num, profile_photo 
-      from users 
-      where user_id=#{userId}  로 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,6 +183,50 @@
     <t>프로필 사진, 속한 지점, 회원인증유형, 이름 보기
 슬라이드 메뉴에 들어갈 정보
 sql문 오류 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name, to_char(birth, 'yyyy/mm/dd') as birth, email, address_city||' '||address_gu||' '||address_dong as address, phone_num, profile_photo from users where user_id=#{userId}  로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User 쪽 myBatis 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAO_old.java
+UserDAO.java 새로 생성
+userMapper.xml 추가
+userMapper.xml 새로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAO.java
+-
+mybatis-Config.xml
+-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 수정X 선택적 수정 시 경우의 수 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 부분 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAO.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미구현. 방법2로 구현할 계획)
+- 방법1. 경우의 수대로 UserVO 생성자 오버로딩
+- 방법2. 원래 값을 읽어와 VO에 1차 저장하고, 입력(수정)할 수 있는 모든 항목을 파라미터로 받아오되, 수정안한 항목을 null 체크를 통해 null이 아닌 경우에만 vo.setXXX() 를 통해 2차 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,12 +259,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -235,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +293,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,10 +615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C493B5-24BC-44AA-825B-146CB36B2AAB}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,132 +629,166 @@
     <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43239</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="1:6" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="99" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/0519~20 주말진행상황.xlsx
+++ b/0519~20 주말진행상황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD4E5F15-A621-4C6A-9F3D-6FBA581FD9F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{31220740-32D4-45DA-9541-3B66983EED99}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{9EA27C81-5605-4A34-9003-4C308B634538}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,24 +98,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAO 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>session.select 의 결과를 바로 사용 불가. result type 맞춰서 변수에 대입 후 해당 변수를 사용해야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserDAO.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String result = session.selectOne();
-result.equals() --&gt; (O)
-(String)(session.selectOne).equals() --&gt;(X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -227,6 +209,60 @@
     <t>(미구현. 방법2로 구현할 계획)
 - 방법1. 경우의 수대로 UserVO 생성자 오버로딩
 - 방법2. 원래 값을 읽어와 VO에 1차 저장하고, 입력(수정)할 수 있는 모든 항목을 파라미터로 받아오되, 수정안한 항목을 null 체크를 통해 null이 아닌 경우에만 vo.setXXX() 를 통해 2차 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAO.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 재확인 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null check로 결과 판단 시 sql문 select 대상 pw일 필요있나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try-catch-finally 블록에서 catch 내용 없음.
+CUD에서 if-else 구문에서 else 내용 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회워가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴여부(status) 값 처리 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserVO.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미수정)
+현재 가정. VO에는 status를 포함한 users 테이블의 모든 칼럼이 멤버 데이터로 들어가 있음. 사용자가 입력하지 않고 시스템적으로 탈퇴여부 값 전달한다고 가정함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,15 +287,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -268,9 +310,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -282,23 +358,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -615,65 +706,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C493B5-24BC-44AA-825B-146CB36B2AAB}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>43239</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -689,25 +780,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>25</v>
+    <row r="4" spans="1:6" ht="264" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -723,72 +814,111 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>22</v>
+    </row>
+    <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="99" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="99" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/0519~20 주말진행상황.xlsx
+++ b/0519~20 주말진행상황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{31220740-32D4-45DA-9541-3B66983EED99}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A2145B57-E248-420F-ACB8-F852BDC5E38B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{9EA27C81-5605-4A34-9003-4C308B634538}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,34 @@
   <si>
     <t>(미수정)
 현재 가정. VO에는 status를 포함한 users 테이블의 모든 칼럼이 멤버 데이터로 들어가 있음. 사용자가 입력하지 않고 시스템적으로 탈퇴여부 값 전달한다고 가정함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAOTest.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 test 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 부분 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기능 test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -310,43 +338,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -362,35 +356,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,11 +700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C493B5-24BC-44AA-825B-146CB36B2AAB}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -721,45 +715,46 @@
     <col min="4" max="4" width="42" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>43239</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -793,7 +788,7 @@
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -815,20 +810,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -850,75 +845,111 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="99" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>43240</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/0519~20 주말진행상황.xlsx
+++ b/0519~20 주말진행상황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A2145B57-E248-420F-ACB8-F852BDC5E38B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59313E78-48B5-4E2E-A63B-37B2973B34AC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{9EA27C81-5605-4A34-9003-4C308B634538}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회워가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탈퇴여부(status) 값 처리 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,6 +288,79 @@
   <si>
     <t>비기능 test</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAO.java
+userMapper.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_city||' '||address_gu||' '||address_dong as address,
+--&gt; address_city, address_gu, address_dong,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userMapper.xml
+진행형황관리.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql문 불필요한 alias 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return type 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection&lt;Map&lt;String,String&gt;&gt; --&gt; Map
+selectList-&gt;selectOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입
+회원 정보 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 입/출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안한 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시-구-동 체계 아닌 지역의 주소 null 허용? 입력체계는?
+ex1) 경기도-성남시-판교동?
+성남시-분당구-판교동?
+ex2) 강원도-강릉시-주문진읍?
+강릉시-null-주문진읍?
+ex3) 전라남도-곡성군-곡성읍?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch 블록에 e.printStackTrace()만 추가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try-catch-finally 블록에서 catch 내용 추가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUD에서 if-else 구문에서 else 내용 없음.</t>
   </si>
 </sst>
 </file>
@@ -315,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,6 +460,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,11 +784,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C493B5-24BC-44AA-825B-146CB36B2AAB}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,10 +799,11 @@
     <col min="4" max="4" width="42" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -737,8 +822,11 @@
       <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>43239</v>
       </c>
@@ -758,7 +846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -775,7 +863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="264" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -792,7 +880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -809,7 +897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
@@ -827,7 +915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -844,43 +932,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="99" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="G8" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>24</v>
@@ -898,58 +989,142 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>43240</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/0519~20 주말진행상황.xlsx
+++ b/0519~20 주말진행상황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59313E78-48B5-4E2E-A63B-37B2973B34AC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D2F707F-45F3-4143-9DBA-8A5EE411AFE5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{9EA27C81-5605-4A34-9003-4C308B634538}"/>
   </bookViews>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탈퇴여부(status) 값 처리 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +353,47 @@
   </si>
   <si>
     <t>CUD에서 if-else 구문에서 else 내용 없음.</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAOTest.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 안되는 경우 어떤 예외 발생하는지만 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진 없이 회원가입, 회원 정보 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진 (null 항목) 있는 경우와 없는 경우 경우의 수 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAO.java
+userMapper.xml
+UserDAOTest.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI?
+DB….?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO: null인 경우 조건 설정
+mapper: NN과 null인 경우로 &lt;select id=…&gt; 구분
+Test: 파라미터가 VO인 경우 null 생략하고 테스트해도 ok. Map인 경우 null 인 경우 테스트 시 nulll 명시해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -784,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C493B5-24BC-44AA-825B-146CB36B2AAB}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,25 +838,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
@@ -831,197 +864,197 @@
         <v>43239</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1029,102 +1062,132 @@
         <v>43240</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/0519~20 주말진행상황.xlsx
+++ b/0519~20 주말진행상황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D2F707F-45F3-4143-9DBA-8A5EE411AFE5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9E514B7-9D07-4DF2-B734-643183BCF9F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{9EA27C81-5605-4A34-9003-4C308B634538}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(미수정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>try-catch-finally 블록에서 catch 내용 없음.
 CUD에서 if-else 구문에서 else 내용 없음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,9 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CUD에서 if-else 구문에서 else 내용 없음.</t>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,14 +378,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI?
-DB….?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAO: null인 경우 조건 설정
 mapper: NN과 null인 경우로 &lt;select id=…&gt; 구분
 Test: 파라미터가 VO인 경우 null 생략하고 테스트해도 ok. Map인 경우 null 인 경우 테스트 시 nulll 명시해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류부터 3단계만 Users 테이블에 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUD에서 if-else 구문에서 else 내용 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미구현)(U, D 결과가 1이 아닐때 예외추가계획)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,8 +828,8 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -856,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
@@ -881,7 +889,7 @@
     </row>
     <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -983,7 +991,7 @@
         <v>37</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -995,7 +1003,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>40</v>
@@ -1005,56 +1013,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>44</v>
+      <c r="F10" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1062,10 +1070,10 @@
         <v>43240</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1073,16 +1081,16 @@
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1090,51 +1098,51 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="D17" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1146,13 +1154,13 @@
         <v>39</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1164,30 +1172,30 @@
         <v>39</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
